--- a/data/output/FV2404_FV2310/UTILMD/55074.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55074.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5980" uniqueCount="489">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6001" uniqueCount="489">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1601,6 +1601,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U272" totalsRowShown="0">
+  <autoFilter ref="A1:U272"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1890,7 +1920,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14701,5 +14734,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55074.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55074.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7329" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7257" uniqueCount="755">
   <si>
     <t>#</t>
   </si>
@@ -8140,46 +8140,44 @@
       <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2" t="s">
+      <c r="C106" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="L106" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M106" s="2" t="s">
+      <c r="L106" s="5"/>
+      <c r="M106" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2" t="s">
+      <c r="N106" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="V106" s="2" t="s">
+      <c r="V106" s="6" t="s">
         <v>382</v>
       </c>
     </row>
@@ -8458,46 +8456,44 @@
       <c r="V111" s="2"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2" t="s">
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="L112" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M112" s="2" t="s">
+      <c r="L112" s="5"/>
+      <c r="M112" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="N112" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2" t="s">
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="V112" s="2" t="s">
+      <c r="V112" s="6" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8988,46 +8984,44 @@
       <c r="V121" s="2"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2" t="s">
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="L122" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M122" s="2" t="s">
+      <c r="L122" s="5"/>
+      <c r="M122" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="N122" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2" t="s">
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+      <c r="R122" s="6"/>
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
+      <c r="U122" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="V122" s="2" t="s">
+      <c r="V122" s="6" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9298,46 +9292,44 @@
       </c>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2" t="s">
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="K128" s="2" t="s">
+      <c r="K128" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="L128" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M128" s="2" t="s">
+      <c r="L128" s="5"/>
+      <c r="M128" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N128" s="2" t="s">
+      <c r="N128" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2" t="s">
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+      <c r="R128" s="6"/>
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+      <c r="U128" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="V128" s="2" t="s">
+      <c r="V128" s="6" t="s">
         <v>385</v>
       </c>
     </row>
@@ -9562,44 +9554,42 @@
       <c r="V132" s="2"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2" t="s">
+      <c r="C133" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K133" s="2"/>
-      <c r="L133" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M133" s="2" t="s">
+      <c r="K133" s="6"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N133" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2" t="s">
+      <c r="N133" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+      <c r="R133" s="6"/>
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+      <c r="U133" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="V133" s="2"/>
+      <c r="V133" s="6"/>
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="2" t="s">
@@ -9864,44 +9854,42 @@
       <c r="V138" s="2"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2" t="s">
+      <c r="C139" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K139" s="2"/>
-      <c r="L139" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M139" s="2" t="s">
+      <c r="K139" s="6"/>
+      <c r="L139" s="5"/>
+      <c r="M139" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N139" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2" t="s">
+      <c r="N139" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+      <c r="R139" s="6"/>
+      <c r="S139" s="6"/>
+      <c r="T139" s="6"/>
+      <c r="U139" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="V139" s="2"/>
+      <c r="V139" s="6"/>
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="2" t="s">
@@ -10062,44 +10050,42 @@
       <c r="V142" s="2"/>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2" t="s">
+      <c r="C143" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K143" s="2"/>
-      <c r="L143" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M143" s="2" t="s">
+      <c r="K143" s="6"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N143" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
-      <c r="U143" s="2" t="s">
+      <c r="N143" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+      <c r="R143" s="6"/>
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+      <c r="U143" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="V143" s="2"/>
+      <c r="V143" s="6"/>
     </row>
     <row r="144" spans="1:22">
       <c r="A144" s="2" t="s">
@@ -10291,9 +10277,7 @@
         <v>330</v>
       </c>
       <c r="K147" s="2"/>
-      <c r="L147" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L147" s="5"/>
       <c r="M147" s="2" t="s">
         <v>51</v>
       </c>
@@ -10320,46 +10304,44 @@
       <c r="V147" s="2"/>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2" t="s">
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="K148" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="L148" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M148" s="2" t="s">
+      <c r="L148" s="5"/>
+      <c r="M148" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="N148" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-      <c r="U148" s="2" t="s">
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+      <c r="R148" s="6"/>
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+      <c r="U148" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="V148" s="2" t="s">
+      <c r="V148" s="6" t="s">
         <v>387</v>
       </c>
     </row>
@@ -10850,46 +10832,44 @@
       <c r="V157" s="2"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2" t="s">
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="K158" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="L158" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M158" s="2" t="s">
+      <c r="L158" s="5"/>
+      <c r="M158" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N158" s="2" t="s">
+      <c r="N158" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2" t="s">
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="V158" s="2" t="s">
+      <c r="V158" s="6" t="s">
         <v>389</v>
       </c>
     </row>
@@ -11322,44 +11302,42 @@
       <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2" t="s">
+      <c r="C167" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K167" s="2"/>
-      <c r="L167" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M167" s="2" t="s">
+      <c r="K167" s="6"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N167" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2" t="s">
+      <c r="N167" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+      <c r="S167" s="6"/>
+      <c r="T167" s="6"/>
+      <c r="U167" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="V167" s="2"/>
+      <c r="V167" s="6"/>
     </row>
     <row r="168" spans="1:22">
       <c r="A168" s="2" t="s">
@@ -11597,9 +11575,7 @@
         <v>330</v>
       </c>
       <c r="K172" s="2"/>
-      <c r="L172" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L172" s="5"/>
       <c r="M172" s="2" t="s">
         <v>58</v>
       </c>
@@ -11653,9 +11629,7 @@
         <v>330</v>
       </c>
       <c r="K173" s="2"/>
-      <c r="L173" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L173" s="5"/>
       <c r="M173" s="2" t="s">
         <v>58</v>
       </c>
@@ -11709,9 +11683,7 @@
         <v>330</v>
       </c>
       <c r="K174" s="2"/>
-      <c r="L174" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L174" s="5"/>
       <c r="M174" s="2" t="s">
         <v>58</v>
       </c>
@@ -11765,9 +11737,7 @@
         <v>330</v>
       </c>
       <c r="K175" s="2"/>
-      <c r="L175" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L175" s="5"/>
       <c r="M175" s="2" t="s">
         <v>58</v>
       </c>
@@ -11821,9 +11791,7 @@
         <v>354</v>
       </c>
       <c r="K176" s="2"/>
-      <c r="L176" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L176" s="5"/>
       <c r="M176" s="2" t="s">
         <v>58</v>
       </c>
@@ -11877,9 +11845,7 @@
         <v>330</v>
       </c>
       <c r="K177" s="2"/>
-      <c r="L177" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L177" s="5"/>
       <c r="M177" s="2" t="s">
         <v>58</v>
       </c>
@@ -12199,9 +12165,7 @@
         <v>330</v>
       </c>
       <c r="K183" s="2"/>
-      <c r="L183" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L183" s="5"/>
       <c r="M183" s="2" t="s">
         <v>60</v>
       </c>
@@ -12255,9 +12219,7 @@
         <v>330</v>
       </c>
       <c r="K184" s="2"/>
-      <c r="L184" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L184" s="5"/>
       <c r="M184" s="2" t="s">
         <v>60</v>
       </c>
@@ -12415,9 +12377,7 @@
         <v>330</v>
       </c>
       <c r="K187" s="2"/>
-      <c r="L187" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L187" s="5"/>
       <c r="M187" s="2" t="s">
         <v>61</v>
       </c>
@@ -12444,46 +12404,44 @@
       <c r="V187" s="2"/>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="2"/>
-      <c r="J188" s="2" t="s">
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="K188" s="2" t="s">
+      <c r="K188" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="L188" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M188" s="2" t="s">
+      <c r="L188" s="5"/>
+      <c r="M188" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N188" s="2" t="s">
+      <c r="N188" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O188" s="2"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="2"/>
-      <c r="R188" s="2"/>
-      <c r="S188" s="2"/>
-      <c r="T188" s="2"/>
-      <c r="U188" s="2" t="s">
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+      <c r="R188" s="6"/>
+      <c r="S188" s="6"/>
+      <c r="T188" s="6"/>
+      <c r="U188" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="V188" s="2" t="s">
+      <c r="V188" s="6" t="s">
         <v>392</v>
       </c>
     </row>
@@ -12729,9 +12687,7 @@
       <c r="K193" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="L193" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L193" s="5"/>
       <c r="M193" s="2" t="s">
         <v>63</v>
       </c>
@@ -13358,46 +13314,44 @@
       <c r="V204" s="2"/>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2" t="s">
+      <c r="C205" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D205" s="6"/>
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="K205" s="2" t="s">
+      <c r="K205" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="L205" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M205" s="2" t="s">
+      <c r="L205" s="5"/>
+      <c r="M205" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N205" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2" t="s">
+      <c r="N205" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+      <c r="R205" s="6"/>
+      <c r="S205" s="6"/>
+      <c r="T205" s="6"/>
+      <c r="U205" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="V205" s="2" t="s">
+      <c r="V205" s="6" t="s">
         <v>397</v>
       </c>
     </row>
@@ -13637,9 +13591,7 @@
         <v>330</v>
       </c>
       <c r="K210" s="2"/>
-      <c r="L210" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L210" s="5"/>
       <c r="M210" s="2" t="s">
         <v>66</v>
       </c>
@@ -13693,9 +13645,7 @@
         <v>330</v>
       </c>
       <c r="K211" s="2"/>
-      <c r="L211" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L211" s="5"/>
       <c r="M211" s="2" t="s">
         <v>66</v>
       </c>
@@ -13749,9 +13699,7 @@
         <v>330</v>
       </c>
       <c r="K212" s="2"/>
-      <c r="L212" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L212" s="5"/>
       <c r="M212" s="2" t="s">
         <v>66</v>
       </c>
@@ -14138,46 +14086,44 @@
       <c r="V219" s="2"/>
     </row>
     <row r="220" spans="1:22">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
-      <c r="J220" s="2" t="s">
+      <c r="D220" s="6"/>
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="K220" s="2" t="s">
+      <c r="K220" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="L220" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M220" s="2" t="s">
+      <c r="L220" s="5"/>
+      <c r="M220" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N220" s="2" t="s">
+      <c r="N220" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
-      <c r="Q220" s="2"/>
-      <c r="R220" s="2"/>
-      <c r="S220" s="2"/>
-      <c r="T220" s="2"/>
-      <c r="U220" s="2" t="s">
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+      <c r="R220" s="6"/>
+      <c r="S220" s="6"/>
+      <c r="T220" s="6"/>
+      <c r="U220" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="V220" s="2" t="s">
+      <c r="V220" s="6" t="s">
         <v>399</v>
       </c>
     </row>
@@ -14444,44 +14390,42 @@
       <c r="V225" s="2"/>
     </row>
     <row r="226" spans="1:22">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2" t="s">
+      <c r="C226" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K226" s="2"/>
-      <c r="L226" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M226" s="2" t="s">
+      <c r="K226" s="6"/>
+      <c r="L226" s="5"/>
+      <c r="M226" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N226" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-      <c r="Q226" s="2"/>
-      <c r="R226" s="2"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="2"/>
-      <c r="U226" s="2" t="s">
+      <c r="N226" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+      <c r="R226" s="6"/>
+      <c r="S226" s="6"/>
+      <c r="T226" s="6"/>
+      <c r="U226" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="V226" s="2"/>
+      <c r="V226" s="6"/>
     </row>
     <row r="227" spans="1:22">
       <c r="A227" s="2" t="s">
@@ -14881,9 +14825,7 @@
         <v>330</v>
       </c>
       <c r="K234" s="2"/>
-      <c r="L234" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L234" s="5"/>
       <c r="M234" s="2" t="s">
         <v>70</v>
       </c>
@@ -14937,9 +14879,7 @@
         <v>330</v>
       </c>
       <c r="K235" s="2"/>
-      <c r="L235" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L235" s="5"/>
       <c r="M235" s="2" t="s">
         <v>70</v>
       </c>
@@ -14993,9 +14933,7 @@
         <v>330</v>
       </c>
       <c r="K236" s="2"/>
-      <c r="L236" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L236" s="5"/>
       <c r="M236" s="2" t="s">
         <v>70</v>
       </c>
@@ -15080,46 +15018,44 @@
       </c>
     </row>
     <row r="238" spans="1:22">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D238" s="2"/>
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2" t="s">
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="K238" s="2" t="s">
+      <c r="K238" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="L238" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M238" s="2" t="s">
+      <c r="L238" s="5"/>
+      <c r="M238" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N238" s="2" t="s">
+      <c r="N238" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
-      <c r="Q238" s="2"/>
-      <c r="R238" s="2"/>
-      <c r="S238" s="2"/>
-      <c r="T238" s="2"/>
-      <c r="U238" s="2" t="s">
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+      <c r="R238" s="6"/>
+      <c r="S238" s="6"/>
+      <c r="T238" s="6"/>
+      <c r="U238" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="V238" s="2" t="s">
+      <c r="V238" s="6" t="s">
         <v>399</v>
       </c>
     </row>
@@ -15247,9 +15183,7 @@
         <v>329</v>
       </c>
       <c r="K241" s="2"/>
-      <c r="L241" s="4" t="s">
-        <v>406</v>
-      </c>
+      <c r="L241" s="5"/>
       <c r="M241" s="2" t="s">
         <v>71</v>
       </c>
@@ -15534,46 +15468,44 @@
       </c>
     </row>
     <row r="247" spans="1:22">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2" t="s">
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="K247" s="2" t="s">
+      <c r="K247" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="L247" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M247" s="2" t="s">
+      <c r="L247" s="5"/>
+      <c r="M247" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N247" s="2" t="s">
+      <c r="N247" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="O247" s="2"/>
-      <c r="P247" s="2"/>
-      <c r="Q247" s="2"/>
-      <c r="R247" s="2"/>
-      <c r="S247" s="2"/>
-      <c r="T247" s="2"/>
-      <c r="U247" s="2" t="s">
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
+      <c r="S247" s="6"/>
+      <c r="T247" s="6"/>
+      <c r="U247" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="V247" s="2" t="s">
+      <c r="V247" s="6" t="s">
         <v>403</v>
       </c>
     </row>
@@ -16002,44 +15934,42 @@
       </c>
     </row>
     <row r="256" spans="1:22">
-      <c r="A256" s="2" t="s">
+      <c r="A256" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C256" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D256" s="2"/>
-      <c r="E256" s="2"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2" t="s">
+      <c r="C256" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="K256" s="2"/>
-      <c r="L256" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M256" s="2" t="s">
+      <c r="K256" s="6"/>
+      <c r="L256" s="5"/>
+      <c r="M256" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N256" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2"/>
-      <c r="Q256" s="2"/>
-      <c r="R256" s="2"/>
-      <c r="S256" s="2"/>
-      <c r="T256" s="2"/>
-      <c r="U256" s="2" t="s">
+      <c r="N256" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O256" s="6"/>
+      <c r="P256" s="6"/>
+      <c r="Q256" s="6"/>
+      <c r="R256" s="6"/>
+      <c r="S256" s="6"/>
+      <c r="T256" s="6"/>
+      <c r="U256" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="V256" s="2"/>
+      <c r="V256" s="6"/>
     </row>
     <row r="257" spans="1:22">
       <c r="A257" s="2" t="s">
@@ -16308,46 +16238,44 @@
       </c>
     </row>
     <row r="262" spans="1:22">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D262" s="2"/>
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2" t="s">
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="K262" s="2" t="s">
+      <c r="K262" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="L262" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M262" s="2" t="s">
+      <c r="L262" s="5"/>
+      <c r="M262" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N262" s="2" t="s">
+      <c r="N262" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="O262" s="2"/>
-      <c r="P262" s="2"/>
-      <c r="Q262" s="2"/>
-      <c r="R262" s="2"/>
-      <c r="S262" s="2"/>
-      <c r="T262" s="2"/>
-      <c r="U262" s="2" t="s">
+      <c r="O262" s="6"/>
+      <c r="P262" s="6"/>
+      <c r="Q262" s="6"/>
+      <c r="R262" s="6"/>
+      <c r="S262" s="6"/>
+      <c r="T262" s="6"/>
+      <c r="U262" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="V262" s="2" t="s">
+      <c r="V262" s="6" t="s">
         <v>404</v>
       </c>
     </row>
